--- a/BiometricAnalysis/Cluster_labels.xlsx
+++ b/BiometricAnalysis/Cluster_labels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\rstudio_workspace\RequirementEngineering\ReplicationPackage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Dropbox (Universita degli Studi di Bari)\DottoratoGirardi\ReplicationPackage_RE\ReplicationPackage\BiometricAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC5C26D-54C3-4E4D-8EAB-959FCC6DA738}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3176D953-8E9B-4C28-B162-6F5449F6CE1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2090" yWindow="1910" windowWidth="16920" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valence" sheetId="1" r:id="rId1"/>
@@ -21680,7 +21680,7 @@
   <dimension ref="A1:R777"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
